--- a/Code/Results/Cases/Case_1_57/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_57/res_line/loading_percent.xlsx
@@ -412,25 +412,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.94586785313662</v>
+        <v>25.94586785313659</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>15.43659107006311</v>
+        <v>15.43659107006322</v>
       </c>
       <c r="E2">
-        <v>34.03674758568963</v>
+        <v>34.03674758568972</v>
       </c>
       <c r="F2">
-        <v>93.0604210844175</v>
+        <v>93.06042108441784</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>12.82597068816681</v>
+        <v>12.82597068816673</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>66.35355723047721</v>
+        <v>66.35355723047731</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.94131616152252</v>
+        <v>23.94131616152248</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>13.62723764882454</v>
+        <v>13.62723764882458</v>
       </c>
       <c r="E3">
-        <v>31.03454973195185</v>
+        <v>31.03454973195182</v>
       </c>
       <c r="F3">
         <v>82.65483578127292</v>
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>12.41778162934498</v>
+        <v>12.41778162934496</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -488,25 +488,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.69436247484292</v>
+        <v>22.69436247484293</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>12.60743971826036</v>
+        <v>12.60743971826034</v>
       </c>
       <c r="E4">
-        <v>29.26823039460971</v>
+        <v>29.26823039460974</v>
       </c>
       <c r="F4">
-        <v>76.75033725303547</v>
+        <v>76.75033725303561</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>12.40276675380613</v>
+        <v>12.40276675380616</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>56.5392167241008</v>
+        <v>56.53921672410092</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.17825449707121</v>
+        <v>22.17825449707122</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>12.20420000144093</v>
+        <v>12.20420000144084</v>
       </c>
       <c r="E5">
-        <v>28.55394678809611</v>
+        <v>28.55394678809602</v>
       </c>
       <c r="F5">
-        <v>74.40912152163801</v>
+        <v>74.40912152163796</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>12.41545246110882</v>
+        <v>12.41545246110888</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>55.06391602075637</v>
+        <v>55.06391602075643</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.09199645959845</v>
+        <v>22.09199645959843</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>12.13778093842146</v>
+        <v>12.13778093842151</v>
       </c>
       <c r="E6">
-        <v>28.43540859259906</v>
+        <v>28.4354085925991</v>
       </c>
       <c r="F6">
-        <v>74.02317762048079</v>
+        <v>74.02317762048104</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>12.41859229642946</v>
+        <v>12.41859229642942</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>54.81906430371697</v>
+        <v>54.81906430371709</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.68743799879506</v>
+        <v>22.68743799879508</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>12.60196137195937</v>
+        <v>12.60196137195916</v>
       </c>
       <c r="E7">
-        <v>29.25858765701748</v>
+        <v>29.25858765701728</v>
       </c>
       <c r="F7">
-        <v>76.71855273984252</v>
+        <v>76.71855273984227</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>12.4028664496674</v>
+        <v>12.40286644966748</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>56.51930249375611</v>
+        <v>56.51930249375607</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.25483171644534</v>
+        <v>25.25483171644525</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>14.78496893068157</v>
+        <v>14.78496893068163</v>
       </c>
       <c r="E8">
-        <v>32.97384863588897</v>
+        <v>32.97384863588902</v>
       </c>
       <c r="F8">
         <v>89.32441743583234</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>12.50965852716808</v>
+        <v>12.50965852716819</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>64.17580294640473</v>
+        <v>64.17580294640486</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.25483171644534</v>
+        <v>25.25483171644525</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>14.78496893068157</v>
+        <v>14.78496893068163</v>
       </c>
       <c r="E9">
-        <v>32.97384863588897</v>
+        <v>32.97384863588902</v>
       </c>
       <c r="F9">
         <v>89.32441743583234</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12.50965852716808</v>
+        <v>12.50965852716819</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>64.17580294640473</v>
+        <v>64.17580294640486</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.25483171644534</v>
+        <v>25.25483171644525</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>14.78496893068157</v>
+        <v>14.78496893068163</v>
       </c>
       <c r="E10">
-        <v>32.97384863588897</v>
+        <v>32.97384863588902</v>
       </c>
       <c r="F10">
         <v>89.32441743583234</v>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>12.50965852716808</v>
+        <v>12.50965852716819</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>64.17580294640473</v>
+        <v>64.17580294640486</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.25483171644534</v>
+        <v>25.25483171644525</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>14.78496893068157</v>
+        <v>14.78496893068163</v>
       </c>
       <c r="E11">
-        <v>32.97384863588897</v>
+        <v>32.97384863588902</v>
       </c>
       <c r="F11">
         <v>89.32441743583234</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>12.50965852716808</v>
+        <v>12.50965852716819</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>64.17580294640473</v>
+        <v>64.17580294640486</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.25483171644534</v>
+        <v>25.25483171644525</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>14.78496893068157</v>
+        <v>14.78496893068163</v>
       </c>
       <c r="E12">
-        <v>32.97384863588897</v>
+        <v>32.97384863588902</v>
       </c>
       <c r="F12">
         <v>89.32441743583234</v>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>12.50965852716808</v>
+        <v>12.50965852716819</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>64.17580294640473</v>
+        <v>64.17580294640486</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.25483171644534</v>
+        <v>25.25483171644525</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>14.78496893068157</v>
+        <v>14.78496893068163</v>
       </c>
       <c r="E13">
-        <v>32.97384863588897</v>
+        <v>32.97384863588902</v>
       </c>
       <c r="F13">
         <v>89.32441743583234</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>12.50965852716808</v>
+        <v>12.50965852716819</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>64.17580294640473</v>
+        <v>64.17580294640486</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.25483171644534</v>
+        <v>25.25483171644525</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>14.78496893068157</v>
+        <v>14.78496893068163</v>
       </c>
       <c r="E14">
-        <v>32.97384863588897</v>
+        <v>32.97384863588902</v>
       </c>
       <c r="F14">
         <v>89.32441743583234</v>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>12.50965852716808</v>
+        <v>12.50965852716819</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>64.17580294640473</v>
+        <v>64.17580294640486</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.25483171644534</v>
+        <v>25.25483171644525</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>14.78496893068157</v>
+        <v>14.78496893068163</v>
       </c>
       <c r="E15">
-        <v>32.97384863588897</v>
+        <v>32.97384863588902</v>
       </c>
       <c r="F15">
         <v>89.32441743583234</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>12.50965852716808</v>
+        <v>12.50965852716819</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>64.17580294640473</v>
+        <v>64.17580294640486</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.25483171644534</v>
+        <v>25.25483171644525</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>14.78496893068157</v>
+        <v>14.78496893068163</v>
       </c>
       <c r="E16">
-        <v>32.97384863588897</v>
+        <v>32.97384863588902</v>
       </c>
       <c r="F16">
         <v>89.32441743583234</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>12.50965852716808</v>
+        <v>12.50965852716819</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>64.17580294640473</v>
+        <v>64.17580294640486</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.25483171644534</v>
+        <v>25.25483171644525</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>14.78496893068157</v>
+        <v>14.78496893068163</v>
       </c>
       <c r="E17">
-        <v>32.97384863588897</v>
+        <v>32.97384863588902</v>
       </c>
       <c r="F17">
         <v>89.32441743583234</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>12.50965852716808</v>
+        <v>12.50965852716819</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>64.17580294640473</v>
+        <v>64.17580294640486</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.25483171644534</v>
+        <v>25.25483171644525</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>14.78496893068157</v>
+        <v>14.78496893068163</v>
       </c>
       <c r="E18">
-        <v>32.97384863588897</v>
+        <v>32.97384863588902</v>
       </c>
       <c r="F18">
         <v>89.32441743583234</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>12.50965852716808</v>
+        <v>12.50965852716819</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>64.17580294640473</v>
+        <v>64.17580294640486</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.25483171644534</v>
+        <v>25.25483171644525</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>14.78496893068157</v>
+        <v>14.78496893068163</v>
       </c>
       <c r="E19">
-        <v>32.97384863588897</v>
+        <v>32.97384863588902</v>
       </c>
       <c r="F19">
         <v>89.32441743583234</v>
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>12.50965852716808</v>
+        <v>12.50965852716819</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>64.17580294640473</v>
+        <v>64.17580294640486</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.25483171644534</v>
+        <v>25.25483171644525</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>14.78496893068157</v>
+        <v>14.78496893068163</v>
       </c>
       <c r="E20">
-        <v>32.97384863588897</v>
+        <v>32.97384863588902</v>
       </c>
       <c r="F20">
         <v>89.32441743583234</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>12.50965852716808</v>
+        <v>12.50965852716819</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>64.17580294640473</v>
+        <v>64.17580294640486</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.25483171644534</v>
+        <v>25.25483171644525</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>14.78496893068157</v>
+        <v>14.78496893068163</v>
       </c>
       <c r="E21">
-        <v>32.97384863588897</v>
+        <v>32.97384863588902</v>
       </c>
       <c r="F21">
         <v>89.32441743583234</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>12.50965852716808</v>
+        <v>12.50965852716819</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>64.17580294640473</v>
+        <v>64.17580294640486</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.25483171644534</v>
+        <v>25.25483171644525</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>14.78496893068157</v>
+        <v>14.78496893068163</v>
       </c>
       <c r="E22">
-        <v>32.97384863588897</v>
+        <v>32.97384863588902</v>
       </c>
       <c r="F22">
         <v>89.32441743583234</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>12.50965852716808</v>
+        <v>12.50965852716819</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>64.17580294640473</v>
+        <v>64.17580294640486</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.25483171644534</v>
+        <v>25.25483171644525</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>14.78496893068157</v>
+        <v>14.78496893068163</v>
       </c>
       <c r="E23">
-        <v>32.97384863588897</v>
+        <v>32.97384863588902</v>
       </c>
       <c r="F23">
         <v>89.32441743583234</v>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>12.50965852716808</v>
+        <v>12.50965852716819</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>64.17580294640473</v>
+        <v>64.17580294640486</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.25483171644534</v>
+        <v>25.25483171644525</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>14.78496893068157</v>
+        <v>14.78496893068163</v>
       </c>
       <c r="E24">
-        <v>32.97384863588897</v>
+        <v>32.97384863588902</v>
       </c>
       <c r="F24">
         <v>89.32441743583234</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>12.50965852716808</v>
+        <v>12.50965852716819</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>64.17580294640473</v>
+        <v>64.17580294640486</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.25483171644534</v>
+        <v>25.25483171644525</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>14.78496893068157</v>
+        <v>14.78496893068163</v>
       </c>
       <c r="E25">
-        <v>32.97384863588897</v>
+        <v>32.97384863588902</v>
       </c>
       <c r="F25">
         <v>89.32441743583234</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>12.50965852716808</v>
+        <v>12.50965852716819</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>64.17580294640473</v>
+        <v>64.17580294640486</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_57/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_57/res_line/loading_percent.xlsx
@@ -412,25 +412,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.94586785313659</v>
+        <v>25.94586785313662</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>15.43659107006322</v>
+        <v>15.43659107006311</v>
       </c>
       <c r="E2">
-        <v>34.03674758568972</v>
+        <v>34.03674758568963</v>
       </c>
       <c r="F2">
-        <v>93.06042108441784</v>
+        <v>93.0604210844175</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>12.82597068816673</v>
+        <v>12.82597068816681</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>66.35355723047731</v>
+        <v>66.35355723047721</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.94131616152248</v>
+        <v>23.94131616152252</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>13.62723764882458</v>
+        <v>13.62723764882454</v>
       </c>
       <c r="E3">
-        <v>31.03454973195182</v>
+        <v>31.03454973195185</v>
       </c>
       <c r="F3">
         <v>82.65483578127292</v>
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>12.41778162934496</v>
+        <v>12.41778162934498</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -488,25 +488,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.69436247484293</v>
+        <v>22.69436247484292</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>12.60743971826034</v>
+        <v>12.60743971826036</v>
       </c>
       <c r="E4">
-        <v>29.26823039460974</v>
+        <v>29.26823039460971</v>
       </c>
       <c r="F4">
-        <v>76.75033725303561</v>
+        <v>76.75033725303547</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>12.40276675380616</v>
+        <v>12.40276675380613</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>56.53921672410092</v>
+        <v>56.5392167241008</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.17825449707122</v>
+        <v>22.17825449707121</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>12.20420000144084</v>
+        <v>12.20420000144093</v>
       </c>
       <c r="E5">
-        <v>28.55394678809602</v>
+        <v>28.55394678809611</v>
       </c>
       <c r="F5">
-        <v>74.40912152163796</v>
+        <v>74.40912152163801</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>12.41545246110888</v>
+        <v>12.41545246110882</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>55.06391602075643</v>
+        <v>55.06391602075637</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.09199645959843</v>
+        <v>22.09199645959845</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>12.13778093842151</v>
+        <v>12.13778093842146</v>
       </c>
       <c r="E6">
-        <v>28.4354085925991</v>
+        <v>28.43540859259906</v>
       </c>
       <c r="F6">
-        <v>74.02317762048104</v>
+        <v>74.02317762048079</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>12.41859229642942</v>
+        <v>12.41859229642946</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>54.81906430371709</v>
+        <v>54.81906430371697</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.68743799879508</v>
+        <v>22.68743799879506</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>12.60196137195916</v>
+        <v>12.60196137195937</v>
       </c>
       <c r="E7">
-        <v>29.25858765701728</v>
+        <v>29.25858765701748</v>
       </c>
       <c r="F7">
-        <v>76.71855273984227</v>
+        <v>76.71855273984252</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>12.40286644966748</v>
+        <v>12.4028664496674</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>56.51930249375607</v>
+        <v>56.51930249375611</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.25483171644525</v>
+        <v>25.25483171644534</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>14.78496893068163</v>
+        <v>14.78496893068157</v>
       </c>
       <c r="E8">
-        <v>32.97384863588902</v>
+        <v>32.97384863588897</v>
       </c>
       <c r="F8">
         <v>89.32441743583234</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>12.50965852716819</v>
+        <v>12.50965852716808</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>64.17580294640486</v>
+        <v>64.17580294640473</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.25483171644525</v>
+        <v>25.25483171644534</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>14.78496893068163</v>
+        <v>14.78496893068157</v>
       </c>
       <c r="E9">
-        <v>32.97384863588902</v>
+        <v>32.97384863588897</v>
       </c>
       <c r="F9">
         <v>89.32441743583234</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12.50965852716819</v>
+        <v>12.50965852716808</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>64.17580294640486</v>
+        <v>64.17580294640473</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.25483171644525</v>
+        <v>25.25483171644534</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>14.78496893068163</v>
+        <v>14.78496893068157</v>
       </c>
       <c r="E10">
-        <v>32.97384863588902</v>
+        <v>32.97384863588897</v>
       </c>
       <c r="F10">
         <v>89.32441743583234</v>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>12.50965852716819</v>
+        <v>12.50965852716808</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>64.17580294640486</v>
+        <v>64.17580294640473</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.25483171644525</v>
+        <v>25.25483171644534</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>14.78496893068163</v>
+        <v>14.78496893068157</v>
       </c>
       <c r="E11">
-        <v>32.97384863588902</v>
+        <v>32.97384863588897</v>
       </c>
       <c r="F11">
         <v>89.32441743583234</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>12.50965852716819</v>
+        <v>12.50965852716808</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>64.17580294640486</v>
+        <v>64.17580294640473</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.25483171644525</v>
+        <v>25.25483171644534</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>14.78496893068163</v>
+        <v>14.78496893068157</v>
       </c>
       <c r="E12">
-        <v>32.97384863588902</v>
+        <v>32.97384863588897</v>
       </c>
       <c r="F12">
         <v>89.32441743583234</v>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>12.50965852716819</v>
+        <v>12.50965852716808</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>64.17580294640486</v>
+        <v>64.17580294640473</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.25483171644525</v>
+        <v>25.25483171644534</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>14.78496893068163</v>
+        <v>14.78496893068157</v>
       </c>
       <c r="E13">
-        <v>32.97384863588902</v>
+        <v>32.97384863588897</v>
       </c>
       <c r="F13">
         <v>89.32441743583234</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>12.50965852716819</v>
+        <v>12.50965852716808</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>64.17580294640486</v>
+        <v>64.17580294640473</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.25483171644525</v>
+        <v>25.25483171644534</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>14.78496893068163</v>
+        <v>14.78496893068157</v>
       </c>
       <c r="E14">
-        <v>32.97384863588902</v>
+        <v>32.97384863588897</v>
       </c>
       <c r="F14">
         <v>89.32441743583234</v>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>12.50965852716819</v>
+        <v>12.50965852716808</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>64.17580294640486</v>
+        <v>64.17580294640473</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.25483171644525</v>
+        <v>25.25483171644534</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>14.78496893068163</v>
+        <v>14.78496893068157</v>
       </c>
       <c r="E15">
-        <v>32.97384863588902</v>
+        <v>32.97384863588897</v>
       </c>
       <c r="F15">
         <v>89.32441743583234</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>12.50965852716819</v>
+        <v>12.50965852716808</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>64.17580294640486</v>
+        <v>64.17580294640473</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.25483171644525</v>
+        <v>25.25483171644534</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>14.78496893068163</v>
+        <v>14.78496893068157</v>
       </c>
       <c r="E16">
-        <v>32.97384863588902</v>
+        <v>32.97384863588897</v>
       </c>
       <c r="F16">
         <v>89.32441743583234</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>12.50965852716819</v>
+        <v>12.50965852716808</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>64.17580294640486</v>
+        <v>64.17580294640473</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.25483171644525</v>
+        <v>25.25483171644534</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>14.78496893068163</v>
+        <v>14.78496893068157</v>
       </c>
       <c r="E17">
-        <v>32.97384863588902</v>
+        <v>32.97384863588897</v>
       </c>
       <c r="F17">
         <v>89.32441743583234</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>12.50965852716819</v>
+        <v>12.50965852716808</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>64.17580294640486</v>
+        <v>64.17580294640473</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.25483171644525</v>
+        <v>25.25483171644534</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>14.78496893068163</v>
+        <v>14.78496893068157</v>
       </c>
       <c r="E18">
-        <v>32.97384863588902</v>
+        <v>32.97384863588897</v>
       </c>
       <c r="F18">
         <v>89.32441743583234</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>12.50965852716819</v>
+        <v>12.50965852716808</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>64.17580294640486</v>
+        <v>64.17580294640473</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.25483171644525</v>
+        <v>25.25483171644534</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>14.78496893068163</v>
+        <v>14.78496893068157</v>
       </c>
       <c r="E19">
-        <v>32.97384863588902</v>
+        <v>32.97384863588897</v>
       </c>
       <c r="F19">
         <v>89.32441743583234</v>
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>12.50965852716819</v>
+        <v>12.50965852716808</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>64.17580294640486</v>
+        <v>64.17580294640473</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.25483171644525</v>
+        <v>25.25483171644534</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>14.78496893068163</v>
+        <v>14.78496893068157</v>
       </c>
       <c r="E20">
-        <v>32.97384863588902</v>
+        <v>32.97384863588897</v>
       </c>
       <c r="F20">
         <v>89.32441743583234</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>12.50965852716819</v>
+        <v>12.50965852716808</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>64.17580294640486</v>
+        <v>64.17580294640473</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.25483171644525</v>
+        <v>25.25483171644534</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>14.78496893068163</v>
+        <v>14.78496893068157</v>
       </c>
       <c r="E21">
-        <v>32.97384863588902</v>
+        <v>32.97384863588897</v>
       </c>
       <c r="F21">
         <v>89.32441743583234</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>12.50965852716819</v>
+        <v>12.50965852716808</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>64.17580294640486</v>
+        <v>64.17580294640473</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.25483171644525</v>
+        <v>25.25483171644534</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>14.78496893068163</v>
+        <v>14.78496893068157</v>
       </c>
       <c r="E22">
-        <v>32.97384863588902</v>
+        <v>32.97384863588897</v>
       </c>
       <c r="F22">
         <v>89.32441743583234</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>12.50965852716819</v>
+        <v>12.50965852716808</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>64.17580294640486</v>
+        <v>64.17580294640473</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.25483171644525</v>
+        <v>25.25483171644534</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>14.78496893068163</v>
+        <v>14.78496893068157</v>
       </c>
       <c r="E23">
-        <v>32.97384863588902</v>
+        <v>32.97384863588897</v>
       </c>
       <c r="F23">
         <v>89.32441743583234</v>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>12.50965852716819</v>
+        <v>12.50965852716808</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>64.17580294640486</v>
+        <v>64.17580294640473</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.25483171644525</v>
+        <v>25.25483171644534</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>14.78496893068163</v>
+        <v>14.78496893068157</v>
       </c>
       <c r="E24">
-        <v>32.97384863588902</v>
+        <v>32.97384863588897</v>
       </c>
       <c r="F24">
         <v>89.32441743583234</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>12.50965852716819</v>
+        <v>12.50965852716808</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>64.17580294640486</v>
+        <v>64.17580294640473</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.25483171644525</v>
+        <v>25.25483171644534</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>14.78496893068163</v>
+        <v>14.78496893068157</v>
       </c>
       <c r="E25">
-        <v>32.97384863588902</v>
+        <v>32.97384863588897</v>
       </c>
       <c r="F25">
         <v>89.32441743583234</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>12.50965852716819</v>
+        <v>12.50965852716808</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>64.17580294640486</v>
+        <v>64.17580294640473</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_57/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_57/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.94586785313662</v>
+        <v>25.86979984675171</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>15.43659107006311</v>
+        <v>15.17354397857423</v>
       </c>
       <c r="E2">
-        <v>34.03674758568963</v>
+        <v>33.65939563063223</v>
       </c>
       <c r="F2">
-        <v>93.0604210844175</v>
+        <v>91.92816761721075</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.718677047926913</v>
       </c>
       <c r="H2">
-        <v>12.82597068816681</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>12.76536857101918</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>66.35355723047721</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>65.85087701413632</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.94131616152252</v>
+        <v>23.87754180363681</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>13.62723764882454</v>
+        <v>13.40407563492139</v>
       </c>
       <c r="E3">
-        <v>31.03454973195185</v>
+        <v>30.70560721681614</v>
       </c>
       <c r="F3">
-        <v>82.65483578127292</v>
+        <v>81.75677336075431</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1.784222326081455</v>
       </c>
       <c r="H3">
-        <v>12.41778162934498</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>12.49747917514363</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>60.18471424602478</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>59.77109538053388</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.69436247484292</v>
+        <v>22.63589416883884</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>12.60743971826036</v>
+        <v>12.40291891055664</v>
       </c>
       <c r="E4">
-        <v>29.26823039460971</v>
+        <v>28.95862508615894</v>
       </c>
       <c r="F4">
-        <v>76.75033725303547</v>
+        <v>75.9655987555137</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1.820100024819877</v>
       </c>
       <c r="H4">
-        <v>12.40276675380613</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>12.49429072856753</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>56.5392167241008</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>56.16503073417511</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.17825449707121</v>
+        <v>22.1216514172568</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>12.20420000144093</v>
+        <v>12.00659008967383</v>
       </c>
       <c r="E5">
-        <v>28.55394678809611</v>
+        <v>28.25075521624684</v>
       </c>
       <c r="F5">
-        <v>74.40912152163801</v>
+        <v>73.66719219581471</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1.834058441547988</v>
       </c>
       <c r="H5">
-        <v>12.41545246110882</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>12.51151408327894</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>55.06391602075637</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>54.70382196577999</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.09199645959845</v>
+        <v>22.03568951465682</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>12.13778093842146</v>
+        <v>11.94129019366039</v>
       </c>
       <c r="E6">
-        <v>28.43540859259906</v>
+        <v>28.13321195100998</v>
       </c>
       <c r="F6">
-        <v>74.02317762048079</v>
+        <v>73.28822509815014</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1.836344851501654</v>
       </c>
       <c r="H6">
-        <v>12.41859229642946</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>12.51539270987666</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>54.81906430371697</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>54.46122131077961</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.68743799879506</v>
+        <v>22.62899583889918</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>12.60196137195937</v>
+        <v>12.39753591180657</v>
       </c>
       <c r="E7">
-        <v>29.25858765701748</v>
+        <v>28.94907388299356</v>
       </c>
       <c r="F7">
-        <v>76.71855273984252</v>
+        <v>75.93440175010302</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1.820290543859925</v>
       </c>
       <c r="H7">
-        <v>12.4028664496674</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>12.49445264999921</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>56.51930249375611</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>56.14531307654703</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.25483171644534</v>
+        <v>25.18371966384337</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>14.78496893068157</v>
+        <v>14.53762429622538</v>
       </c>
       <c r="E8">
-        <v>32.97384863588897</v>
+        <v>32.61642936558574</v>
       </c>
       <c r="F8">
-        <v>89.32441743583234</v>
+        <v>88.28323864687778</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1.742544150974501</v>
       </c>
       <c r="H8">
-        <v>12.50965852716808</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>12.57544742233943</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>64.17580294640473</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>63.70874381857189</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.25483171644534</v>
+        <v>30.75778243731999</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>14.78496893068157</v>
+        <v>21.42485646223124</v>
       </c>
       <c r="E9">
-        <v>32.97384863588897</v>
+        <v>43.14056560074875</v>
       </c>
       <c r="F9">
-        <v>89.32441743583234</v>
+        <v>126.8949426890625</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.4658716324313</v>
       </c>
       <c r="H9">
-        <v>12.50965852716808</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>16.56091052529048</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>64.17580294640473</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>84.33576957368089</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.25483171644534</v>
+        <v>30.75778243731999</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>14.78496893068157</v>
+        <v>21.42485646223124</v>
       </c>
       <c r="E10">
-        <v>32.97384863588897</v>
+        <v>43.14056560074875</v>
       </c>
       <c r="F10">
-        <v>89.32441743583234</v>
+        <v>126.8949426890625</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.4658716324313</v>
       </c>
       <c r="H10">
-        <v>12.50965852716808</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>16.56091052529048</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>64.17580294640473</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>84.33576957368089</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.25483171644534</v>
+        <v>30.75778243731999</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>14.78496893068157</v>
+        <v>21.42485646223124</v>
       </c>
       <c r="E11">
-        <v>32.97384863588897</v>
+        <v>43.14056560074875</v>
       </c>
       <c r="F11">
-        <v>89.32441743583234</v>
+        <v>126.8949426890625</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.4658716324313</v>
       </c>
       <c r="H11">
-        <v>12.50965852716808</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>16.56091052529048</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>64.17580294640473</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>84.33576957368089</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.25483171644534</v>
+        <v>30.75778243731999</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>14.78496893068157</v>
+        <v>21.42485646223124</v>
       </c>
       <c r="E12">
-        <v>32.97384863588897</v>
+        <v>43.14056560074875</v>
       </c>
       <c r="F12">
-        <v>89.32441743583234</v>
+        <v>126.8949426890625</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.4658716324313</v>
       </c>
       <c r="H12">
-        <v>12.50965852716808</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>16.56091052529048</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>64.17580294640473</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>84.33576957368089</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.25483171644534</v>
+        <v>30.75778243731999</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>14.78496893068157</v>
+        <v>21.42485646223124</v>
       </c>
       <c r="E13">
-        <v>32.97384863588897</v>
+        <v>43.14056560074875</v>
       </c>
       <c r="F13">
-        <v>89.32441743583234</v>
+        <v>126.8949426890625</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.4658716324313</v>
       </c>
       <c r="H13">
-        <v>12.50965852716808</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>16.56091052529048</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>64.17580294640473</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>84.33576957368089</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.25483171644534</v>
+        <v>30.75778243731999</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>14.78496893068157</v>
+        <v>21.42485646223124</v>
       </c>
       <c r="E14">
-        <v>32.97384863588897</v>
+        <v>43.14056560074875</v>
       </c>
       <c r="F14">
-        <v>89.32441743583234</v>
+        <v>126.8949426890625</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.4658716324313</v>
       </c>
       <c r="H14">
-        <v>12.50965852716808</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>16.56091052529048</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>64.17580294640473</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>84.33576957368089</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.25483171644534</v>
+        <v>30.75778243731999</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>14.78496893068157</v>
+        <v>21.42485646223124</v>
       </c>
       <c r="E15">
-        <v>32.97384863588897</v>
+        <v>43.14056560074875</v>
       </c>
       <c r="F15">
-        <v>89.32441743583234</v>
+        <v>126.8949426890625</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.4658716324313</v>
       </c>
       <c r="H15">
-        <v>12.50965852716808</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>16.56091052529048</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>64.17580294640473</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>84.33576957368089</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.25483171644534</v>
+        <v>30.75778243731999</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>14.78496893068157</v>
+        <v>21.42485646223124</v>
       </c>
       <c r="E16">
-        <v>32.97384863588897</v>
+        <v>43.14056560074875</v>
       </c>
       <c r="F16">
-        <v>89.32441743583234</v>
+        <v>126.8949426890625</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.4658716324313</v>
       </c>
       <c r="H16">
-        <v>12.50965852716808</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>16.56091052529048</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>64.17580294640473</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>84.33576957368089</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.25483171644534</v>
+        <v>30.75778243731999</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>14.78496893068157</v>
+        <v>21.42485646223124</v>
       </c>
       <c r="E17">
-        <v>32.97384863588897</v>
+        <v>43.14056560074875</v>
       </c>
       <c r="F17">
-        <v>89.32441743583234</v>
+        <v>126.8949426890625</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.4658716324313</v>
       </c>
       <c r="H17">
-        <v>12.50965852716808</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>16.56091052529048</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>64.17580294640473</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>84.33576957368089</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.25483171644534</v>
+        <v>30.75778243731999</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>14.78496893068157</v>
+        <v>21.42485646223124</v>
       </c>
       <c r="E18">
-        <v>32.97384863588897</v>
+        <v>43.14056560074875</v>
       </c>
       <c r="F18">
-        <v>89.32441743583234</v>
+        <v>126.8949426890625</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.4658716324313</v>
       </c>
       <c r="H18">
-        <v>12.50965852716808</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>16.56091052529048</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>64.17580294640473</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>84.33576957368089</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.25483171644534</v>
+        <v>30.75778243731999</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>14.78496893068157</v>
+        <v>21.42485646223124</v>
       </c>
       <c r="E19">
-        <v>32.97384863588897</v>
+        <v>43.14056560074875</v>
       </c>
       <c r="F19">
-        <v>89.32441743583234</v>
+        <v>126.8949426890625</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.4658716324313</v>
       </c>
       <c r="H19">
-        <v>12.50965852716808</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>16.56091052529048</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>64.17580294640473</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>84.33576957368089</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.25483171644534</v>
+        <v>30.75778243731999</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>14.78496893068157</v>
+        <v>21.42485646223124</v>
       </c>
       <c r="E20">
-        <v>32.97384863588897</v>
+        <v>43.14056560074875</v>
       </c>
       <c r="F20">
-        <v>89.32441743583234</v>
+        <v>126.8949426890625</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.4658716324313</v>
       </c>
       <c r="H20">
-        <v>12.50965852716808</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>16.56091052529048</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>64.17580294640473</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>84.33576957368089</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.25483171644534</v>
+        <v>30.75778243731999</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>14.78496893068157</v>
+        <v>21.42485646223124</v>
       </c>
       <c r="E21">
-        <v>32.97384863588897</v>
+        <v>43.14056560074875</v>
       </c>
       <c r="F21">
-        <v>89.32441743583234</v>
+        <v>126.8949426890625</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.4658716324313</v>
       </c>
       <c r="H21">
-        <v>12.50965852716808</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>16.56091052529048</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>64.17580294640473</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>84.33576957368089</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.25483171644534</v>
+        <v>30.75778243731999</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>14.78496893068157</v>
+        <v>21.42485646223124</v>
       </c>
       <c r="E22">
-        <v>32.97384863588897</v>
+        <v>43.14056560074875</v>
       </c>
       <c r="F22">
-        <v>89.32441743583234</v>
+        <v>126.8949426890625</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.4658716324313</v>
       </c>
       <c r="H22">
-        <v>12.50965852716808</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>16.56091052529048</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>64.17580294640473</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>84.33576957368089</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.25483171644534</v>
+        <v>30.75778243731999</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>14.78496893068157</v>
+        <v>21.42485646223124</v>
       </c>
       <c r="E23">
-        <v>32.97384863588897</v>
+        <v>43.14056560074875</v>
       </c>
       <c r="F23">
-        <v>89.32441743583234</v>
+        <v>126.8949426890625</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.4658716324313</v>
       </c>
       <c r="H23">
-        <v>12.50965852716808</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>16.56091052529048</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>64.17580294640473</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>84.33576957368089</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.25483171644534</v>
+        <v>30.75778243731999</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>14.78496893068157</v>
+        <v>21.42485646223124</v>
       </c>
       <c r="E24">
-        <v>32.97384863588897</v>
+        <v>43.14056560074875</v>
       </c>
       <c r="F24">
-        <v>89.32441743583234</v>
+        <v>126.8949426890625</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.4658716324313</v>
       </c>
       <c r="H24">
-        <v>12.50965852716808</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>16.56091052529048</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>64.17580294640473</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>84.33576957368089</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.25483171644534</v>
+        <v>30.75778243731999</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>14.78496893068157</v>
+        <v>21.42485646223124</v>
       </c>
       <c r="E25">
-        <v>32.97384863588897</v>
+        <v>43.14056560074875</v>
       </c>
       <c r="F25">
-        <v>89.32441743583234</v>
+        <v>126.8949426890625</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.4658716324313</v>
       </c>
       <c r="H25">
-        <v>12.50965852716808</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>16.56091052529048</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>64.17580294640473</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>84.33576957368089</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_57/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_57/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.86979984675171</v>
+        <v>7.317677905918557</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>15.17354397857423</v>
+        <v>13.04111365852201</v>
       </c>
       <c r="E2">
-        <v>33.65939563063223</v>
+        <v>35.48110327132613</v>
       </c>
       <c r="F2">
-        <v>91.92816761721075</v>
+        <v>82.55319847056568</v>
       </c>
       <c r="G2">
-        <v>1.718677047926913</v>
+        <v>1.77850002657913</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>12.76536857101918</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>73.01769830145885</v>
       </c>
       <c r="L2">
-        <v>65.85087701413632</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>9.741794815470053</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.87754180363681</v>
+        <v>6.940950544867902</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>13.40407563492139</v>
+        <v>11.61047364880117</v>
       </c>
       <c r="E3">
-        <v>30.70560721681614</v>
+        <v>31.73726045466865</v>
       </c>
       <c r="F3">
-        <v>81.75677336075431</v>
+        <v>74.10197195827926</v>
       </c>
       <c r="G3">
-        <v>1.784222326081455</v>
+        <v>1.833544106275501</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>12.49747917514363</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>66.07180853336601</v>
       </c>
       <c r="L3">
-        <v>59.77109538053388</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>10.34104243946999</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.63589416883884</v>
+        <v>6.705008810568327</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>12.40291891055664</v>
+        <v>10.78827636397436</v>
       </c>
       <c r="E4">
-        <v>28.95862508615894</v>
+        <v>29.58198535000291</v>
       </c>
       <c r="F4">
-        <v>75.9655987555137</v>
+        <v>69.19672091476716</v>
       </c>
       <c r="G4">
-        <v>1.820100024819877</v>
+        <v>1.864153826813916</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>12.49429072856753</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>61.96114806979342</v>
       </c>
       <c r="L4">
-        <v>56.16503073417511</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>10.67784735914374</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.1216514172568</v>
+        <v>6.607688418062213</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>12.00659008967383</v>
+        <v>10.46069918089568</v>
       </c>
       <c r="E5">
-        <v>28.25075521624684</v>
+        <v>28.72159214853297</v>
       </c>
       <c r="F5">
-        <v>73.66719219581471</v>
+        <v>67.23450133103212</v>
       </c>
       <c r="G5">
-        <v>1.834058441547988</v>
+        <v>1.876133016173797</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>12.51151408327894</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>60.29911484866104</v>
       </c>
       <c r="L5">
-        <v>54.70382196577999</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>10.81021615379085</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.03568951465682</v>
+        <v>6.591458905181212</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>11.94129019366039</v>
+        <v>10.4066208660921</v>
       </c>
       <c r="E6">
-        <v>28.13321195100998</v>
+        <v>28.57943800654877</v>
       </c>
       <c r="F6">
-        <v>73.28822509815014</v>
+        <v>66.91018873646823</v>
       </c>
       <c r="G6">
-        <v>1.836344851501654</v>
+        <v>1.878098569585841</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>12.51539270987666</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>60.02340038855757</v>
       </c>
       <c r="L6">
-        <v>54.46122131077961</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>10.83196153144548</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.62899583889918</v>
+        <v>6.703701011747655</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>12.39753591180657</v>
+        <v>10.7838347185813</v>
       </c>
       <c r="E7">
-        <v>28.94907388299356</v>
+        <v>29.57032675709456</v>
       </c>
       <c r="F7">
-        <v>75.93440175010302</v>
+        <v>69.17014253644621</v>
       </c>
       <c r="G7">
-        <v>1.820290543859925</v>
+        <v>1.864317086784937</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>12.49445264999921</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>61.93870521002779</v>
       </c>
       <c r="L7">
-        <v>56.14531307654703</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>10.67964943212455</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.18371966384337</v>
+        <v>7.188707204579259</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>14.53762429622538</v>
+        <v>12.53079599076485</v>
       </c>
       <c r="E8">
-        <v>32.61642936558574</v>
+        <v>34.14572492033923</v>
       </c>
       <c r="F8">
-        <v>88.28323864687778</v>
+        <v>79.55238318285255</v>
       </c>
       <c r="G8">
-        <v>1.742544150974501</v>
+        <v>1.798387321120248</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>12.57544742233943</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>70.57016190151072</v>
       </c>
       <c r="L8">
-        <v>63.70874381857189</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>9.957240154091156</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.75778243731999</v>
+        <v>8.115708183181408</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>21.42485646223124</v>
+        <v>17.36351879796689</v>
       </c>
       <c r="E9">
-        <v>43.14056560074875</v>
+        <v>46.96782200724547</v>
       </c>
       <c r="F9">
-        <v>126.8949426890625</v>
+        <v>107.1286977458376</v>
       </c>
       <c r="G9">
-        <v>1.4658716324313</v>
+        <v>1.600046168654474</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>16.56091052529048</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>92.37883624972665</v>
       </c>
       <c r="L9">
-        <v>84.33576957368089</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>7.876146888986504</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.75778243731999</v>
+        <v>8.115708183181408</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>21.42485646223124</v>
+        <v>17.36351879796689</v>
       </c>
       <c r="E10">
-        <v>43.14056560074875</v>
+        <v>46.96782200724547</v>
       </c>
       <c r="F10">
-        <v>126.8949426890625</v>
+        <v>107.1286977458376</v>
       </c>
       <c r="G10">
-        <v>1.4658716324313</v>
+        <v>1.600046168654474</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>16.56091052529048</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>92.37883624972665</v>
       </c>
       <c r="L10">
-        <v>84.33576957368089</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>7.876146888986504</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.75778243731999</v>
+        <v>8.115708183181408</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>21.42485646223124</v>
+        <v>17.36351879796689</v>
       </c>
       <c r="E11">
-        <v>43.14056560074875</v>
+        <v>46.96782200724547</v>
       </c>
       <c r="F11">
-        <v>126.8949426890625</v>
+        <v>107.1286977458376</v>
       </c>
       <c r="G11">
-        <v>1.4658716324313</v>
+        <v>1.600046168654474</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>16.56091052529048</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>92.37883624972665</v>
       </c>
       <c r="L11">
-        <v>84.33576957368089</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>7.876146888986504</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.75778243731999</v>
+        <v>8.115708183181408</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>21.42485646223124</v>
+        <v>17.36351879796689</v>
       </c>
       <c r="E12">
-        <v>43.14056560074875</v>
+        <v>46.96782200724547</v>
       </c>
       <c r="F12">
-        <v>126.8949426890625</v>
+        <v>107.1286977458376</v>
       </c>
       <c r="G12">
-        <v>1.4658716324313</v>
+        <v>1.600046168654474</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>16.56091052529048</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>92.37883624972665</v>
       </c>
       <c r="L12">
-        <v>84.33576957368089</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>7.876146888986504</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.75778243731999</v>
+        <v>8.115708183181408</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>21.42485646223124</v>
+        <v>17.36351879796689</v>
       </c>
       <c r="E13">
-        <v>43.14056560074875</v>
+        <v>46.96782200724547</v>
       </c>
       <c r="F13">
-        <v>126.8949426890625</v>
+        <v>107.1286977458376</v>
       </c>
       <c r="G13">
-        <v>1.4658716324313</v>
+        <v>1.600046168654474</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>16.56091052529048</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>92.37883624972665</v>
       </c>
       <c r="L13">
-        <v>84.33576957368089</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>7.876146888986504</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.75778243731999</v>
+        <v>8.115708183181408</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>21.42485646223124</v>
+        <v>17.36351879796689</v>
       </c>
       <c r="E14">
-        <v>43.14056560074875</v>
+        <v>46.96782200724547</v>
       </c>
       <c r="F14">
-        <v>126.8949426890625</v>
+        <v>107.1286977458376</v>
       </c>
       <c r="G14">
-        <v>1.4658716324313</v>
+        <v>1.600046168654474</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>16.56091052529048</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>92.37883624972665</v>
       </c>
       <c r="L14">
-        <v>84.33576957368089</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>7.876146888986504</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.75778243731999</v>
+        <v>8.115708183181408</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>21.42485646223124</v>
+        <v>17.36351879796689</v>
       </c>
       <c r="E15">
-        <v>43.14056560074875</v>
+        <v>46.96782200724547</v>
       </c>
       <c r="F15">
-        <v>126.8949426890625</v>
+        <v>107.1286977458376</v>
       </c>
       <c r="G15">
-        <v>1.4658716324313</v>
+        <v>1.600046168654474</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>16.56091052529048</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>92.37883624972665</v>
       </c>
       <c r="L15">
-        <v>84.33576957368089</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>7.876146888986504</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.75778243731999</v>
+        <v>8.115708183181408</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>21.42485646223124</v>
+        <v>17.36351879796689</v>
       </c>
       <c r="E16">
-        <v>43.14056560074875</v>
+        <v>46.96782200724547</v>
       </c>
       <c r="F16">
-        <v>126.8949426890625</v>
+        <v>107.1286977458376</v>
       </c>
       <c r="G16">
-        <v>1.4658716324313</v>
+        <v>1.600046168654474</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>16.56091052529048</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>92.37883624972665</v>
       </c>
       <c r="L16">
-        <v>84.33576957368089</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>7.876146888986504</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.75778243731999</v>
+        <v>8.115708183181408</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>21.42485646223124</v>
+        <v>17.36351879796689</v>
       </c>
       <c r="E17">
-        <v>43.14056560074875</v>
+        <v>46.96782200724547</v>
       </c>
       <c r="F17">
-        <v>126.8949426890625</v>
+        <v>107.1286977458376</v>
       </c>
       <c r="G17">
-        <v>1.4658716324313</v>
+        <v>1.600046168654474</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>16.56091052529048</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>92.37883624972665</v>
       </c>
       <c r="L17">
-        <v>84.33576957368089</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>7.876146888986504</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.75778243731999</v>
+        <v>8.115708183181408</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>21.42485646223124</v>
+        <v>17.36351879796689</v>
       </c>
       <c r="E18">
-        <v>43.14056560074875</v>
+        <v>46.96782200724547</v>
       </c>
       <c r="F18">
-        <v>126.8949426890625</v>
+        <v>107.1286977458376</v>
       </c>
       <c r="G18">
-        <v>1.4658716324313</v>
+        <v>1.600046168654474</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>16.56091052529048</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>92.37883624972665</v>
       </c>
       <c r="L18">
-        <v>84.33576957368089</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>7.876146888986504</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.75778243731999</v>
+        <v>8.115708183181408</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>21.42485646223124</v>
+        <v>17.36351879796689</v>
       </c>
       <c r="E19">
-        <v>43.14056560074875</v>
+        <v>46.96782200724547</v>
       </c>
       <c r="F19">
-        <v>126.8949426890625</v>
+        <v>107.1286977458376</v>
       </c>
       <c r="G19">
-        <v>1.4658716324313</v>
+        <v>1.600046168654474</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>16.56091052529048</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>92.37883624972665</v>
       </c>
       <c r="L19">
-        <v>84.33576957368089</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>7.876146888986504</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.75778243731999</v>
+        <v>8.115708183181408</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>21.42485646223124</v>
+        <v>17.36351879796689</v>
       </c>
       <c r="E20">
-        <v>43.14056560074875</v>
+        <v>46.96782200724547</v>
       </c>
       <c r="F20">
-        <v>126.8949426890625</v>
+        <v>107.1286977458376</v>
       </c>
       <c r="G20">
-        <v>1.4658716324313</v>
+        <v>1.600046168654474</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>16.56091052529048</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>92.37883624972665</v>
       </c>
       <c r="L20">
-        <v>84.33576957368089</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>7.876146888986504</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.75778243731999</v>
+        <v>8.115708183181408</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>21.42485646223124</v>
+        <v>17.36351879796689</v>
       </c>
       <c r="E21">
-        <v>43.14056560074875</v>
+        <v>46.96782200724547</v>
       </c>
       <c r="F21">
-        <v>126.8949426890625</v>
+        <v>107.1286977458376</v>
       </c>
       <c r="G21">
-        <v>1.4658716324313</v>
+        <v>1.600046168654474</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>16.56091052529048</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>92.37883624972665</v>
       </c>
       <c r="L21">
-        <v>84.33576957368089</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>7.876146888986504</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.75778243731999</v>
+        <v>8.115708183181408</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>21.42485646223124</v>
+        <v>17.36351879796689</v>
       </c>
       <c r="E22">
-        <v>43.14056560074875</v>
+        <v>46.96782200724547</v>
       </c>
       <c r="F22">
-        <v>126.8949426890625</v>
+        <v>107.1286977458376</v>
       </c>
       <c r="G22">
-        <v>1.4658716324313</v>
+        <v>1.600046168654474</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>16.56091052529048</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>92.37883624972665</v>
       </c>
       <c r="L22">
-        <v>84.33576957368089</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>7.876146888986504</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.75778243731999</v>
+        <v>8.115708183181408</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>21.42485646223124</v>
+        <v>17.36351879796689</v>
       </c>
       <c r="E23">
-        <v>43.14056560074875</v>
+        <v>46.96782200724547</v>
       </c>
       <c r="F23">
-        <v>126.8949426890625</v>
+        <v>107.1286977458376</v>
       </c>
       <c r="G23">
-        <v>1.4658716324313</v>
+        <v>1.600046168654474</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>16.56091052529048</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>92.37883624972665</v>
       </c>
       <c r="L23">
-        <v>84.33576957368089</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>7.876146888986504</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.75778243731999</v>
+        <v>8.115708183181408</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>21.42485646223124</v>
+        <v>17.36351879796689</v>
       </c>
       <c r="E24">
-        <v>43.14056560074875</v>
+        <v>46.96782200724547</v>
       </c>
       <c r="F24">
-        <v>126.8949426890625</v>
+        <v>107.1286977458376</v>
       </c>
       <c r="G24">
-        <v>1.4658716324313</v>
+        <v>1.600046168654474</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>16.56091052529048</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>92.37883624972665</v>
       </c>
       <c r="L24">
-        <v>84.33576957368089</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>7.876146888986504</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>30.75778243731999</v>
+        <v>8.115708183181408</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>21.42485646223124</v>
+        <v>17.36351879796689</v>
       </c>
       <c r="E25">
-        <v>43.14056560074875</v>
+        <v>46.96782200724547</v>
       </c>
       <c r="F25">
-        <v>126.8949426890625</v>
+        <v>107.1286977458376</v>
       </c>
       <c r="G25">
-        <v>1.4658716324313</v>
+        <v>1.600046168654474</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>16.56091052529048</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>92.37883624972665</v>
       </c>
       <c r="L25">
-        <v>84.33576957368089</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>7.876146888986504</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_57/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_57/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>7.76548733449558</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>15.70147892709808</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>16.8914657067185</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>79.18329445036399</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>3.506330476203962</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>18.20530214750648</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -467,115 +467,1081 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>7.690488708080919</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>14.77592733642983</v>
+      </c>
+      <c r="E3">
+        <v>15.83773364141649</v>
+      </c>
+      <c r="F3">
+        <v>74.47837908689883</v>
+      </c>
+      <c r="G3">
+        <v>3.529805785378899</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>17.93039231733595</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>7.645832371061269</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>14.19414791763246</v>
+      </c>
+      <c r="E4">
+        <v>15.17352420103694</v>
+      </c>
+      <c r="F4">
+        <v>71.51645782996002</v>
+      </c>
+      <c r="G4">
+        <v>3.544608187503419</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>17.76180298315366</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>7.628005955137651</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>13.95385669039773</v>
+      </c>
+      <c r="E5">
+        <v>14.89868000058549</v>
+      </c>
+      <c r="F5">
+        <v>70.29197460439845</v>
+      </c>
+      <c r="G5">
+        <v>3.550743460503492</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>17.69323820308981</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>7.62506892762707</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>13.91376899661901</v>
+      </c>
+      <c r="E6">
+        <v>14.85279612538557</v>
+      </c>
+      <c r="F6">
+        <v>70.08762687775106</v>
+      </c>
+      <c r="G6">
+        <v>3.551768602166149</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>17.68186382811895</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>7.645590426591721</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>14.1909199868236</v>
+      </c>
+      <c r="E7">
+        <v>15.16983419960331</v>
+      </c>
+      <c r="F7">
+        <v>71.50001336761324</v>
+      </c>
+      <c r="G7">
+        <v>3.54469050522829</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>17.76087762816193</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>7.739351513268206</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>15.38523740816072</v>
+      </c>
+      <c r="E8">
+        <v>16.531783796978</v>
+      </c>
+      <c r="F8">
+        <v>77.57665559929748</v>
+      </c>
+      <c r="G8">
+        <v>3.514347576878945</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>18.11052099476146</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>7.933315105475813</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>17.61545575248089</v>
+      </c>
+      <c r="E9">
+        <v>19.31299120419661</v>
+      </c>
+      <c r="F9">
+        <v>88.88891582150619</v>
+      </c>
+      <c r="G9">
+        <v>3.457655171938651</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>18.79413998554015</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>8.080666255167996</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>19.18354377081927</v>
+      </c>
+      <c r="E10">
+        <v>21.27254021223276</v>
+      </c>
+      <c r="F10">
+        <v>96.82025173967121</v>
+      </c>
+      <c r="G10">
+        <v>3.417293879054482</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>19.2903645072747</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>8.148469166187589</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>19.882254131257</v>
+      </c>
+      <c r="E11">
+        <v>22.13417988788829</v>
+      </c>
+      <c r="F11">
+        <v>100.375551308333</v>
+      </c>
+      <c r="G11">
+        <v>3.399104769743772</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>19.51383106981896</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>8.174231662406697</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>20.14485752328794</v>
+      </c>
+      <c r="E12">
+        <v>22.45650474274569</v>
+      </c>
+      <c r="F12">
+        <v>101.7602969162273</v>
+      </c>
+      <c r="G12">
+        <v>3.392231354933776</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>19.59804885977368</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>8.16867975878044</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>20.08838689763395</v>
+      </c>
+      <c r="E13">
+        <v>22.38725686955723</v>
+      </c>
+      <c r="F13">
+        <v>101.462669791035</v>
+      </c>
+      <c r="G13">
+        <v>3.393711204724962</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>19.57993023154881</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>8.150587055475782</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>19.90389753590305</v>
+      </c>
+      <c r="E14">
+        <v>22.16077511795529</v>
+      </c>
+      <c r="F14">
+        <v>100.4897481760506</v>
+      </c>
+      <c r="G14">
+        <v>3.398539064538483</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>19.52076825226974</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>8.139515373066168</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>19.79063869454599</v>
+      </c>
+      <c r="E15">
+        <v>22.02154308477912</v>
+      </c>
+      <c r="F15">
+        <v>99.89202405618641</v>
+      </c>
+      <c r="G15">
+        <v>3.401497817248198</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>19.48447494387066</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>8.076248655076988</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>19.13759617107814</v>
+      </c>
+      <c r="E16">
+        <v>21.21565760162241</v>
+      </c>
+      <c r="F16">
+        <v>96.58808562967803</v>
+      </c>
+      <c r="G16">
+        <v>3.418485183737173</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>19.27570805562921</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>8.037617191288239</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>18.73329891393025</v>
+      </c>
+      <c r="E17">
+        <v>20.71386519476749</v>
+      </c>
+      <c r="F17">
+        <v>94.54463780054199</v>
+      </c>
+      <c r="G17">
+        <v>3.428943406072497</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>19.1469988187265</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>8.015471503472495</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>18.49937118066546</v>
+      </c>
+      <c r="E18">
+        <v>20.42242412896504</v>
+      </c>
+      <c r="F18">
+        <v>93.36179555458587</v>
+      </c>
+      <c r="G18">
+        <v>3.4349755215375</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>19.07275961144375</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>8.007986816985815</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>18.41992635411241</v>
+      </c>
+      <c r="E19">
+        <v>20.32325310440074</v>
+      </c>
+      <c r="F19">
+        <v>92.96000312887567</v>
+      </c>
+      <c r="G19">
+        <v>3.437021072763376</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>19.04759001474557</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>8.041722081219504</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>18.77647986625631</v>
+      </c>
+      <c r="E20">
+        <v>20.76757185299072</v>
+      </c>
+      <c r="F20">
+        <v>94.76293970079089</v>
+      </c>
+      <c r="G20">
+        <v>3.427828439454143</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>19.16072234870298</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>8.155899150235026</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>19.9581391310594</v>
+      </c>
+      <c r="E21">
+        <v>22.22740299724493</v>
+      </c>
+      <c r="F21">
+        <v>100.7758883412918</v>
+      </c>
+      <c r="G21">
+        <v>3.397120702454084</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>19.53815713259452</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>8.231016616546864</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>20.74910251413693</v>
+      </c>
+      <c r="E22">
+        <v>23.158587716328</v>
+      </c>
+      <c r="F22">
+        <v>104.7815679004802</v>
+      </c>
+      <c r="G22">
+        <v>3.377129621580425</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>19.78244317294331</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>8.19088749503514</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>20.31388974404372</v>
+      </c>
+      <c r="E23">
+        <v>22.6635753317221</v>
+      </c>
+      <c r="F23">
+        <v>102.6506937227307</v>
+      </c>
+      <c r="G23">
+        <v>3.387795830744311</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>19.65230661566004</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>8.039866059139614</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>18.75696241281058</v>
+      </c>
+      <c r="E24">
+        <v>20.74330029734474</v>
+      </c>
+      <c r="F24">
+        <v>94.66427048517238</v>
+      </c>
+      <c r="G24">
+        <v>3.428332454230927</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>19.15451869034849</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>7.879895846024574</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>17.02453591620949</v>
+      </c>
+      <c r="E25">
+        <v>18.56303358944546</v>
+      </c>
+      <c r="F25">
+        <v>85.89552464546693</v>
+      </c>
+      <c r="G25">
+        <v>3.472732019469903</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>18.60992361498241</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_57/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_57/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,46 +415,52 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>6.404773828983834</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>3.567786871921358</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>29.38609681119091</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>25.35797724277903</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>36.08171532890356</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>3.266539028935406</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.042461096677603</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>11.03762946454092</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>13.85145979671522</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>19.50697715693476</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,120 +468,1230 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>12.18776776281684</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="B3">
+        <v>6.056623651517789</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>3.546439727102787</v>
+      </c>
+      <c r="E3">
+        <v>27.44798357966021</v>
+      </c>
+      <c r="F3">
+        <v>24.21779104525607</v>
+      </c>
+      <c r="G3">
+        <v>34.24502940690798</v>
+      </c>
+      <c r="H3">
+        <v>2.978875253692467</v>
+      </c>
+      <c r="I3">
+        <v>3.148661366671056</v>
+      </c>
+      <c r="J3">
+        <v>10.78505289476542</v>
+      </c>
+      <c r="K3">
+        <v>14.00950417251728</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>18.25759667695401</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>12.35474060578655</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="B4">
+        <v>5.827588146364207</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>3.532180041273012</v>
+      </c>
+      <c r="E4">
+        <v>26.19286196434071</v>
+      </c>
+      <c r="F4">
+        <v>23.50513606538453</v>
+      </c>
+      <c r="G4">
+        <v>33.08832576141185</v>
+      </c>
+      <c r="H4">
+        <v>2.796733403713481</v>
+      </c>
+      <c r="I4">
+        <v>3.216834514085881</v>
+      </c>
+      <c r="J4">
+        <v>10.63229904675187</v>
+      </c>
+      <c r="K4">
+        <v>14.10779689672415</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>17.45050979980697</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>12.4583803858299</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="B5">
+        <v>5.718372294589146</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>3.526327695516533</v>
+      </c>
+      <c r="E5">
+        <v>25.66485155847386</v>
+      </c>
+      <c r="F5">
+        <v>23.204741760239</v>
+      </c>
+      <c r="G5">
+        <v>32.59721576955062</v>
+      </c>
+      <c r="H5">
+        <v>2.721033724740692</v>
+      </c>
+      <c r="I5">
+        <v>3.248327715257739</v>
+      </c>
+      <c r="J5">
+        <v>10.56807709910651</v>
+      </c>
+      <c r="K5">
+        <v>14.14298952087362</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>17.11608586576688</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>12.5000688670302</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="B6">
+        <v>5.685214579984068</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>3.525639671685669</v>
+      </c>
+      <c r="E6">
+        <v>25.57607647428498</v>
+      </c>
+      <c r="F6">
+        <v>23.14595305683277</v>
+      </c>
+      <c r="G6">
+        <v>32.49945240779512</v>
+      </c>
+      <c r="H6">
+        <v>2.708313825664201</v>
+      </c>
+      <c r="I6">
+        <v>3.257388440662889</v>
+      </c>
+      <c r="J6">
+        <v>10.55428614023767</v>
+      </c>
+      <c r="K6">
+        <v>14.14253912015845</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>17.06548459515814</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>12.50598272251283</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="B7">
+        <v>5.786497637309022</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>3.532940853371024</v>
+      </c>
+      <c r="E7">
+        <v>26.18553172769332</v>
+      </c>
+      <c r="F7">
+        <v>23.4776036860675</v>
+      </c>
+      <c r="G7">
+        <v>33.03934786155887</v>
+      </c>
+      <c r="H7">
+        <v>2.795549975654673</v>
+      </c>
+      <c r="I7">
+        <v>3.227252726951796</v>
+      </c>
+      <c r="J7">
+        <v>10.62286486599</v>
+      </c>
+      <c r="K7">
+        <v>14.09102815050194</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>17.46081219969953</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>12.45620611876779</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="B8">
+        <v>6.238898994901001</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>3.561852004943575</v>
+      </c>
+      <c r="E8">
+        <v>28.73096049053941</v>
+      </c>
+      <c r="F8">
+        <v>24.93835292389291</v>
+      </c>
+      <c r="G8">
+        <v>35.40226118006598</v>
+      </c>
+      <c r="H8">
+        <v>3.1682683300531</v>
+      </c>
+      <c r="I8">
+        <v>3.091097056899418</v>
+      </c>
+      <c r="J8">
+        <v>10.93911028191449</v>
+      </c>
+      <c r="K8">
+        <v>13.88301356100368</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>19.10254653789177</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>12.24182832613266</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="B9">
+        <v>7.067310369010463</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>3.607567670059781</v>
+      </c>
+      <c r="E9">
+        <v>33.21074079565646</v>
+      </c>
+      <c r="F9">
+        <v>27.72984047761432</v>
+      </c>
+      <c r="G9">
+        <v>39.85900588826602</v>
+      </c>
+      <c r="H9">
+        <v>3.857440757571903</v>
+      </c>
+      <c r="I9">
+        <v>2.830914998875309</v>
+      </c>
+      <c r="J9">
+        <v>11.59129558178701</v>
+      </c>
+      <c r="K9">
+        <v>13.51512043199899</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>21.98258222959419</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>11.83357126665487</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="B10">
+        <v>7.599172403791567</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>3.656511690451192</v>
+      </c>
+      <c r="E10">
+        <v>35.31377430318535</v>
+      </c>
+      <c r="F10">
+        <v>29.49292977029569</v>
+      </c>
+      <c r="G10">
+        <v>42.59777126063777</v>
+      </c>
+      <c r="H10">
+        <v>4.299476239190395</v>
+      </c>
+      <c r="I10">
+        <v>2.663315158699723</v>
+      </c>
+      <c r="J10">
+        <v>12.00224584265758</v>
+      </c>
+      <c r="K10">
+        <v>13.21679306639203</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>23.82460358516019</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>11.53736913410888</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="B11">
+        <v>7.916961438340703</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>3.883059702542182</v>
+      </c>
+      <c r="E11">
+        <v>28.7213674119981</v>
+      </c>
+      <c r="F11">
+        <v>28.54587515042247</v>
+      </c>
+      <c r="G11">
+        <v>40.72398881176895</v>
+      </c>
+      <c r="H11">
+        <v>4.637709959156224</v>
+      </c>
+      <c r="I11">
+        <v>2.642319671096165</v>
+      </c>
+      <c r="J11">
+        <v>11.54012390878731</v>
+      </c>
+      <c r="K11">
+        <v>12.85435996481167</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>23.87750480879088</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>11.42997772993452</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="B12">
+        <v>8.131132589612461</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>4.087973213638304</v>
+      </c>
+      <c r="E12">
+        <v>22.77362036988843</v>
+      </c>
+      <c r="F12">
+        <v>27.38908495307757</v>
+      </c>
+      <c r="G12">
+        <v>38.5967359277252</v>
+      </c>
+      <c r="H12">
+        <v>5.409771777823702</v>
+      </c>
+      <c r="I12">
+        <v>2.638528063282446</v>
+      </c>
+      <c r="J12">
+        <v>11.06529839686788</v>
+      </c>
+      <c r="K12">
+        <v>12.64939209568659</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>23.53523192184083</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>11.42114720973066</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="B13">
+        <v>8.237054943315682</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>4.284528621416868</v>
+      </c>
+      <c r="E13">
+        <v>16.85768007038557</v>
+      </c>
+      <c r="F13">
+        <v>25.9390463040299</v>
+      </c>
+      <c r="G13">
+        <v>36.02982786744582</v>
+      </c>
+      <c r="H13">
+        <v>6.397743609649904</v>
+      </c>
+      <c r="I13">
+        <v>2.66352657855763</v>
+      </c>
+      <c r="J13">
+        <v>10.53331931252224</v>
+      </c>
+      <c r="K13">
+        <v>12.52715298466391</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>22.87738079671734</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>11.48001834646193</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="B14">
+        <v>8.254772674589519</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>4.419618410192874</v>
+      </c>
+      <c r="E14">
+        <v>12.80220682827059</v>
+      </c>
+      <c r="F14">
+        <v>24.76966976432298</v>
+      </c>
+      <c r="G14">
+        <v>33.99242709564332</v>
+      </c>
+      <c r="H14">
+        <v>7.178197646400353</v>
+      </c>
+      <c r="I14">
+        <v>2.696875416869452</v>
+      </c>
+      <c r="J14">
+        <v>10.13093491448051</v>
+      </c>
+      <c r="K14">
+        <v>12.47785699707148</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>22.27123817286216</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>11.55181854605791</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="B15">
+        <v>8.22283474663533</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>4.448429702981566</v>
+      </c>
+      <c r="E15">
+        <v>11.82662419258686</v>
+      </c>
+      <c r="F15">
+        <v>24.41343045515231</v>
+      </c>
+      <c r="G15">
+        <v>33.38464589372867</v>
+      </c>
+      <c r="H15">
+        <v>7.357295985984146</v>
+      </c>
+      <c r="I15">
+        <v>2.716189337662013</v>
+      </c>
+      <c r="J15">
+        <v>10.0190904824373</v>
+      </c>
+      <c r="K15">
+        <v>12.47824925861814</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>22.05707556794796</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>11.58161296117719</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>7.972305482603069</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>4.384085296418238</v>
+      </c>
+      <c r="E16">
+        <v>11.64893718185377</v>
+      </c>
+      <c r="F16">
+        <v>23.86272093963656</v>
+      </c>
+      <c r="G16">
+        <v>32.55381156716211</v>
+      </c>
+      <c r="H16">
+        <v>7.068611868830174</v>
+      </c>
+      <c r="I16">
+        <v>2.787462885922794</v>
+      </c>
+      <c r="J16">
+        <v>9.931944073543841</v>
+      </c>
+      <c r="K16">
+        <v>12.62181924073572</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>21.3963276662983</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>11.68416649691524</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>7.763779295063311</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>4.260950235757754</v>
+      </c>
+      <c r="E17">
+        <v>13.70767898280909</v>
+      </c>
+      <c r="F17">
+        <v>24.08597581683659</v>
+      </c>
+      <c r="G17">
+        <v>33.04675036999537</v>
+      </c>
+      <c r="H17">
+        <v>6.378984063121754</v>
+      </c>
+      <c r="I17">
+        <v>2.825611403133744</v>
+      </c>
+      <c r="J17">
+        <v>10.08345665011798</v>
+      </c>
+      <c r="K17">
+        <v>12.75628049505037</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>21.21670447500437</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>11.72615741749741</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>7.601168034449291</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>4.080290751221491</v>
+      </c>
+      <c r="E18">
+        <v>18.24481701813598</v>
+      </c>
+      <c r="F18">
+        <v>25.01407759928752</v>
+      </c>
+      <c r="G18">
+        <v>34.76296792760748</v>
+      </c>
+      <c r="H18">
+        <v>5.356903627319485</v>
+      </c>
+      <c r="I18">
+        <v>2.827172897190067</v>
+      </c>
+      <c r="J18">
+        <v>10.46025356513172</v>
+      </c>
+      <c r="K18">
+        <v>12.91443862315635</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>21.43646825478785</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>11.72730375088011</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>7.431477744016133</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>3.884957257564792</v>
+      </c>
+      <c r="E19">
+        <v>24.52670681994612</v>
+      </c>
+      <c r="F19">
+        <v>26.38671028677917</v>
+      </c>
+      <c r="G19">
+        <v>37.2410377324704</v>
+      </c>
+      <c r="H19">
+        <v>4.409040091989652</v>
+      </c>
+      <c r="I19">
+        <v>2.817969812806332</v>
+      </c>
+      <c r="J19">
+        <v>10.97319043170759</v>
+      </c>
+      <c r="K19">
+        <v>13.06864205971163</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>21.98927554799351</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>11.70567015591759</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>7.367162162738201</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>3.64809426887547</v>
+      </c>
+      <c r="E20">
+        <v>34.73280128303411</v>
+      </c>
+      <c r="F20">
+        <v>28.96658454636307</v>
+      </c>
+      <c r="G20">
+        <v>41.76740359138434</v>
+      </c>
+      <c r="H20">
+        <v>4.181748808551713</v>
+      </c>
+      <c r="I20">
+        <v>2.739710729967697</v>
+      </c>
+      <c r="J20">
+        <v>11.86683338144756</v>
+      </c>
+      <c r="K20">
+        <v>13.24169350086621</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>23.38440142896837</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>11.60912331857985</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>7.751779672750968</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>3.650855150720343</v>
+      </c>
+      <c r="E21">
+        <v>37.62942955490416</v>
+      </c>
+      <c r="F21">
+        <v>30.61535697955002</v>
+      </c>
+      <c r="G21">
+        <v>44.39330016737921</v>
+      </c>
+      <c r="H21">
+        <v>4.579332327072771</v>
+      </c>
+      <c r="I21">
+        <v>2.602622853967532</v>
+      </c>
+      <c r="J21">
+        <v>12.30513274256302</v>
+      </c>
+      <c r="K21">
+        <v>13.06318451922265</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>24.86944432781522</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>11.38179582870565</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>8.034489871357806</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>3.660719173199897</v>
+      </c>
+      <c r="E22">
+        <v>39.01266085669897</v>
+      </c>
+      <c r="F22">
+        <v>31.59692913656776</v>
+      </c>
+      <c r="G22">
+        <v>45.93459813109472</v>
+      </c>
+      <c r="H22">
+        <v>4.81439599151445</v>
+      </c>
+      <c r="I22">
+        <v>2.503653044312589</v>
+      </c>
+      <c r="J22">
+        <v>12.5644561484881</v>
+      </c>
+      <c r="K22">
+        <v>12.9567690548706</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>25.74697067348615</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>11.23626926849353</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>7.919992617418704</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>3.65433747515396</v>
+      </c>
+      <c r="E23">
+        <v>38.27943886452763</v>
+      </c>
+      <c r="F23">
+        <v>31.09561491500918</v>
+      </c>
+      <c r="G23">
+        <v>45.15184325084892</v>
+      </c>
+      <c r="H23">
+        <v>4.689365056318691</v>
+      </c>
+      <c r="I23">
+        <v>2.543195110562006</v>
+      </c>
+      <c r="J23">
+        <v>12.4344484607148</v>
+      </c>
+      <c r="K23">
+        <v>13.03338236856233</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>25.26903410971745</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>11.31602521152264</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>7.404788945917298</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>3.62969229892499</v>
+      </c>
+      <c r="E24">
+        <v>35.39577888509803</v>
+      </c>
+      <c r="F24">
+        <v>29.13229760017291</v>
+      </c>
+      <c r="G24">
+        <v>42.06835641806421</v>
+      </c>
+      <c r="H24">
+        <v>4.209053021250254</v>
+      </c>
+      <c r="I24">
+        <v>2.718410895167993</v>
+      </c>
+      <c r="J24">
+        <v>11.93213124534717</v>
+      </c>
+      <c r="K24">
+        <v>13.29409876897361</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>23.41119647840261</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>11.61504627083954</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>6.795415724910773</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>3.597970284641446</v>
+      </c>
+      <c r="E25">
+        <v>32.05258338429969</v>
+      </c>
+      <c r="F25">
+        <v>26.95130562701397</v>
+      </c>
+      <c r="G25">
+        <v>38.61626827055426</v>
+      </c>
+      <c r="H25">
+        <v>3.674983939876383</v>
+      </c>
+      <c r="I25">
+        <v>2.916889712824897</v>
+      </c>
+      <c r="J25">
+        <v>11.39889252755976</v>
+      </c>
+      <c r="K25">
+        <v>13.58308517123498</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>21.25931188108606</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>11.93941526417701</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_57/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_57/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.404773828983834</v>
+        <v>5.926117522791349</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.567786871921358</v>
+        <v>3.60841367243466</v>
       </c>
       <c r="E2">
-        <v>29.38609681119091</v>
+        <v>29.34242461542346</v>
       </c>
       <c r="F2">
-        <v>25.35797724277903</v>
+        <v>25.25407034362357</v>
       </c>
       <c r="G2">
-        <v>36.08171532890356</v>
+        <v>35.40852041915017</v>
       </c>
       <c r="H2">
-        <v>3.266539028935406</v>
+        <v>3.239617764166835</v>
       </c>
       <c r="I2">
-        <v>3.042461096677603</v>
+        <v>2.845678697973933</v>
       </c>
       <c r="J2">
-        <v>11.03762946454092</v>
+        <v>11.56023255200012</v>
       </c>
       <c r="K2">
-        <v>13.85145979671522</v>
+        <v>13.2623537034625</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.11879238814189</v>
       </c>
       <c r="M2">
-        <v>19.50697715693476</v>
+        <v>8.444388934940198</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>19.49016915687573</v>
       </c>
       <c r="P2">
-        <v>12.18776776281684</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>12.06870672637707</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.056623651517789</v>
+        <v>5.62949136253368</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.546439727102787</v>
+        <v>3.577254050185278</v>
       </c>
       <c r="E3">
-        <v>27.44798357966021</v>
+        <v>27.41428069028293</v>
       </c>
       <c r="F3">
-        <v>24.21779104525607</v>
+        <v>24.15516730054823</v>
       </c>
       <c r="G3">
-        <v>34.24502940690798</v>
+        <v>33.62206687966335</v>
       </c>
       <c r="H3">
-        <v>2.978875253692467</v>
+        <v>2.958181321852618</v>
       </c>
       <c r="I3">
-        <v>3.148661366671056</v>
+        <v>2.933602284968142</v>
       </c>
       <c r="J3">
-        <v>10.78505289476542</v>
+        <v>11.2958293617639</v>
       </c>
       <c r="K3">
-        <v>14.00950417251728</v>
+        <v>13.42362390751033</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.2887308278687</v>
       </c>
       <c r="M3">
-        <v>18.25759667695401</v>
+        <v>8.565563387385385</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>18.2180868613369</v>
       </c>
       <c r="P3">
-        <v>12.35474060578655</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>12.22685123322544</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.827588146364207</v>
+        <v>5.445133056216769</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.532180041273012</v>
+        <v>3.55692778626373</v>
       </c>
       <c r="E4">
-        <v>26.19286196434071</v>
+        <v>26.16535427898569</v>
       </c>
       <c r="F4">
-        <v>23.50513606538453</v>
+        <v>23.4674783070007</v>
       </c>
       <c r="G4">
-        <v>33.08832576141185</v>
+        <v>32.49988688526928</v>
       </c>
       <c r="H4">
-        <v>2.796733403713481</v>
+        <v>2.779917330556808</v>
       </c>
       <c r="I4">
-        <v>3.216834514085881</v>
+        <v>2.990434828638528</v>
       </c>
       <c r="J4">
-        <v>10.63229904675187</v>
+        <v>11.13229048739032</v>
       </c>
       <c r="K4">
-        <v>14.10779689672415</v>
+        <v>13.52324362184868</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.39848530595395</v>
       </c>
       <c r="M4">
-        <v>17.45050979980697</v>
+        <v>8.651360983334003</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>17.39565885146965</v>
       </c>
       <c r="P4">
-        <v>12.4583803858299</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>12.32526754473182</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.718372294589146</v>
+        <v>5.356889005498719</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.526327695516533</v>
+        <v>3.548575408625336</v>
       </c>
       <c r="E5">
-        <v>25.66485155847386</v>
+        <v>25.63990852717241</v>
       </c>
       <c r="F5">
-        <v>23.204741760239</v>
+        <v>23.17768667601598</v>
       </c>
       <c r="G5">
-        <v>32.59721576955062</v>
+        <v>32.0246438226368</v>
       </c>
       <c r="H5">
-        <v>2.721033724740692</v>
+        <v>2.70582078954618</v>
       </c>
       <c r="I5">
-        <v>3.248327715257739</v>
+        <v>3.017785986128536</v>
       </c>
       <c r="J5">
-        <v>10.56807709910651</v>
+        <v>11.06305343995291</v>
       </c>
       <c r="K5">
-        <v>14.14298952087362</v>
+        <v>13.55928125973671</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.43909273855663</v>
       </c>
       <c r="M5">
-        <v>17.11608586576688</v>
+        <v>8.687695401233533</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>17.05433209291335</v>
       </c>
       <c r="P5">
-        <v>12.5000688670302</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>12.36498446799802</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.685214579984068</v>
+        <v>5.328548934080035</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.525639671685669</v>
+        <v>3.547449878791616</v>
       </c>
       <c r="E6">
-        <v>25.57607647428498</v>
+        <v>25.55157587688833</v>
       </c>
       <c r="F6">
-        <v>23.14595305683277</v>
+        <v>23.12133425526992</v>
       </c>
       <c r="G6">
-        <v>32.49945240779512</v>
+        <v>31.93068543298168</v>
       </c>
       <c r="H6">
-        <v>2.708313825664201</v>
+        <v>2.693376741495719</v>
       </c>
       <c r="I6">
-        <v>3.257388440662889</v>
+        <v>3.026834211961672</v>
       </c>
       <c r="J6">
-        <v>10.55428614023767</v>
+        <v>11.04868402870658</v>
       </c>
       <c r="K6">
-        <v>14.14253912015845</v>
+        <v>13.55953196774947</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.43927689043335</v>
       </c>
       <c r="M6">
-        <v>17.06548459515814</v>
+        <v>8.692113123103521</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>17.00219189453006</v>
       </c>
       <c r="P6">
-        <v>12.50598272251283</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>12.37071047555395</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.786497637309022</v>
+        <v>5.41186847365725</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.532940853371024</v>
+        <v>3.559294392494741</v>
       </c>
       <c r="E7">
-        <v>26.18553172769332</v>
+        <v>26.15703463023113</v>
       </c>
       <c r="F7">
-        <v>23.4776036860675</v>
+        <v>23.41353572162638</v>
       </c>
       <c r="G7">
-        <v>33.03934786155887</v>
+        <v>32.53733369316415</v>
       </c>
       <c r="H7">
-        <v>2.795549975654673</v>
+        <v>2.778127125882801</v>
       </c>
       <c r="I7">
-        <v>3.227252726951796</v>
+        <v>3.002862410849924</v>
       </c>
       <c r="J7">
-        <v>10.62286486599</v>
+        <v>11.06149006156599</v>
       </c>
       <c r="K7">
-        <v>14.09102815050194</v>
+        <v>13.50535048410935</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.37849900385688</v>
       </c>
       <c r="M7">
-        <v>17.46081219969953</v>
+        <v>8.645238754919976</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>17.39145136564895</v>
       </c>
       <c r="P7">
-        <v>12.45620611876779</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>12.32296732035921</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.238898994901001</v>
+        <v>5.792850329331916</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.561852004943575</v>
+        <v>3.604897886318986</v>
       </c>
       <c r="E8">
-        <v>28.73096049053941</v>
+        <v>28.68747731967489</v>
       </c>
       <c r="F8">
-        <v>24.93835292389291</v>
+        <v>24.76151977254142</v>
       </c>
       <c r="G8">
-        <v>35.40226118006598</v>
+        <v>35.00972931543168</v>
       </c>
       <c r="H8">
-        <v>3.1682683300531</v>
+        <v>3.141481305719524</v>
       </c>
       <c r="I8">
-        <v>3.091097056899418</v>
+        <v>2.891209137002405</v>
       </c>
       <c r="J8">
-        <v>10.93911028191449</v>
+        <v>11.25878684611281</v>
       </c>
       <c r="K8">
-        <v>13.88301356100368</v>
+        <v>13.28902122383433</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.14760964333516</v>
       </c>
       <c r="M8">
-        <v>19.10254653789177</v>
+        <v>8.469024317925356</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>19.03567216848904</v>
       </c>
       <c r="P8">
-        <v>12.24182832613266</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>12.1191147341041</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.067310369010463</v>
+        <v>6.496904279133729</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.607567670059781</v>
+        <v>3.676813237803853</v>
       </c>
       <c r="E9">
-        <v>33.21074079565646</v>
+        <v>33.14177503048892</v>
       </c>
       <c r="F9">
-        <v>27.72984047761432</v>
+        <v>27.43222043200694</v>
       </c>
       <c r="G9">
-        <v>39.85900588826602</v>
+        <v>39.39785928915913</v>
       </c>
       <c r="H9">
-        <v>3.857440757571903</v>
+        <v>3.814925590372036</v>
       </c>
       <c r="I9">
-        <v>2.830914998875309</v>
+        <v>2.674338571345478</v>
       </c>
       <c r="J9">
-        <v>11.59129558178701</v>
+        <v>11.87542272124354</v>
       </c>
       <c r="K9">
-        <v>13.51512043199899</v>
+        <v>12.90554661153918</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10.77544785151499</v>
       </c>
       <c r="M9">
-        <v>21.98258222959419</v>
+        <v>8.233565378515182</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>21.96006823556081</v>
       </c>
       <c r="P9">
-        <v>11.83357126665487</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>11.7342016580039</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.599172403791567</v>
+        <v>6.971181946648889</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.656511690451192</v>
+        <v>3.756562567579735</v>
       </c>
       <c r="E10">
-        <v>35.31377430318535</v>
+        <v>35.22104169109183</v>
       </c>
       <c r="F10">
-        <v>29.49292977029569</v>
+        <v>28.97850308093284</v>
       </c>
       <c r="G10">
-        <v>42.59777126063777</v>
+        <v>42.49854899339623</v>
       </c>
       <c r="H10">
-        <v>4.299476239190395</v>
+        <v>4.242909117637553</v>
       </c>
       <c r="I10">
-        <v>2.663315158699723</v>
+        <v>2.540062329414098</v>
       </c>
       <c r="J10">
-        <v>12.00224584265758</v>
+        <v>11.92434810193594</v>
       </c>
       <c r="K10">
-        <v>13.21679306639203</v>
+        <v>12.58688823644838</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.50368046230651</v>
       </c>
       <c r="M10">
-        <v>23.82460358516019</v>
+        <v>8.083815336552428</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>23.76446575549546</v>
       </c>
       <c r="P10">
-        <v>11.53736913410888</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>11.45910458048754</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.916961438340703</v>
+        <v>7.374582357877648</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.883059702542182</v>
+        <v>4.028552677507324</v>
       </c>
       <c r="E11">
-        <v>28.7213674119981</v>
+        <v>28.61069581089003</v>
       </c>
       <c r="F11">
-        <v>28.54587515042247</v>
+        <v>27.75780901576286</v>
       </c>
       <c r="G11">
-        <v>40.72398881176895</v>
+        <v>41.51265666449293</v>
       </c>
       <c r="H11">
-        <v>4.637709959156224</v>
+        <v>4.580774050716396</v>
       </c>
       <c r="I11">
-        <v>2.642319671096165</v>
+        <v>2.53365298817549</v>
       </c>
       <c r="J11">
-        <v>11.54012390878731</v>
+        <v>10.81086418383453</v>
       </c>
       <c r="K11">
-        <v>12.85435996481167</v>
+        <v>12.26385308582077</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.27811468573637</v>
       </c>
       <c r="M11">
-        <v>23.87750480879088</v>
+        <v>7.852225137429185</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>23.6748975599497</v>
       </c>
       <c r="P11">
-        <v>11.42997772993452</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>11.38782336960829</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.131132589612461</v>
+        <v>7.65947286132207</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.087973213638304</v>
+        <v>4.260310362882998</v>
       </c>
       <c r="E12">
-        <v>22.77362036988843</v>
+        <v>22.64989889735846</v>
       </c>
       <c r="F12">
-        <v>27.38908495307757</v>
+        <v>26.49538539734633</v>
       </c>
       <c r="G12">
-        <v>38.5967359277252</v>
+        <v>39.82502900591276</v>
       </c>
       <c r="H12">
-        <v>5.409771777823702</v>
+        <v>5.361745303688325</v>
       </c>
       <c r="I12">
-        <v>2.638528063282446</v>
+        <v>2.531487240000831</v>
       </c>
       <c r="J12">
-        <v>11.06529839686788</v>
+        <v>10.08049034579462</v>
       </c>
       <c r="K12">
-        <v>12.64939209568659</v>
+        <v>12.1005775629921</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.17876496634097</v>
       </c>
       <c r="M12">
-        <v>23.53523192184083</v>
+        <v>7.71401562165611</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>23.25752487647862</v>
       </c>
       <c r="P12">
-        <v>11.42114720973066</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>11.40485190723055</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.237054943315682</v>
+        <v>7.826476174757442</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.284528621416868</v>
+        <v>4.455997067741467</v>
       </c>
       <c r="E13">
-        <v>16.85768007038557</v>
+        <v>16.72212262160305</v>
       </c>
       <c r="F13">
-        <v>25.9390463040299</v>
+        <v>25.12178301305224</v>
       </c>
       <c r="G13">
-        <v>36.02982786744582</v>
+        <v>37.22253911750501</v>
       </c>
       <c r="H13">
-        <v>6.397743609649904</v>
+        <v>6.361051300493919</v>
       </c>
       <c r="I13">
-        <v>2.66352657855763</v>
+        <v>2.550886930700202</v>
       </c>
       <c r="J13">
-        <v>10.53331931252224</v>
+        <v>9.692016530067441</v>
       </c>
       <c r="K13">
-        <v>12.52715298466391</v>
+        <v>12.02722354991179</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.13914905202705</v>
       </c>
       <c r="M13">
-        <v>22.87738079671734</v>
+        <v>7.630295937765704</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>22.59363718655705</v>
       </c>
       <c r="P13">
-        <v>11.48001834646193</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>11.47593630362373</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.254772674589519</v>
+        <v>7.884454836154547</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.419618410192874</v>
+        <v>4.575433320890614</v>
       </c>
       <c r="E14">
-        <v>12.80220682827059</v>
+        <v>12.65463131616058</v>
       </c>
       <c r="F14">
-        <v>24.76966976432298</v>
+        <v>24.08670020090025</v>
       </c>
       <c r="G14">
-        <v>33.99242709564332</v>
+        <v>34.9509314524654</v>
       </c>
       <c r="H14">
-        <v>7.178197646400353</v>
+        <v>7.148932516690102</v>
       </c>
       <c r="I14">
-        <v>2.696875416869452</v>
+        <v>2.577819607304242</v>
       </c>
       <c r="J14">
-        <v>10.13093491448051</v>
+        <v>9.553925239001517</v>
       </c>
       <c r="K14">
-        <v>12.47785699707148</v>
+        <v>12.01203793654562</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.13168402331601</v>
       </c>
       <c r="M14">
-        <v>22.27123817286216</v>
+        <v>7.597010747175132</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>22.01265539210303</v>
       </c>
       <c r="P14">
-        <v>11.55181854605791</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>11.54740399507536</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.22283474663533</v>
+        <v>7.861843126466837</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.448429702981566</v>
+        <v>4.594189311460887</v>
       </c>
       <c r="E15">
-        <v>11.82662419258686</v>
+        <v>11.67737508515729</v>
       </c>
       <c r="F15">
-        <v>24.41343045515231</v>
+        <v>23.79833190660908</v>
       </c>
       <c r="G15">
-        <v>33.38464589372867</v>
+        <v>34.19659388421229</v>
       </c>
       <c r="H15">
-        <v>7.357295985984146</v>
+        <v>7.330145009727314</v>
       </c>
       <c r="I15">
-        <v>2.716189337662013</v>
+        <v>2.594911766256016</v>
       </c>
       <c r="J15">
-        <v>10.0190904824373</v>
+        <v>9.575208686062499</v>
       </c>
       <c r="K15">
-        <v>12.47824925861814</v>
+        <v>12.02171749106754</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.13675620722022</v>
       </c>
       <c r="M15">
-        <v>22.05707556794796</v>
+        <v>7.598008752306423</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>21.81710868099756</v>
       </c>
       <c r="P15">
-        <v>11.58161296117719</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>11.57367333110229</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.972305482603069</v>
+        <v>7.602054757305833</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.384085296418238</v>
+        <v>4.481264942830694</v>
       </c>
       <c r="E16">
-        <v>11.64893718185377</v>
+        <v>11.52535806901173</v>
       </c>
       <c r="F16">
-        <v>23.86272093963656</v>
+        <v>23.5357578059232</v>
       </c>
       <c r="G16">
-        <v>32.55381156716211</v>
+        <v>32.6180243318538</v>
       </c>
       <c r="H16">
-        <v>7.068611868830174</v>
+        <v>7.046227537001681</v>
       </c>
       <c r="I16">
-        <v>2.787462885922794</v>
+        <v>2.652534216262399</v>
       </c>
       <c r="J16">
-        <v>9.931944073543841</v>
+        <v>10.06124667287173</v>
       </c>
       <c r="K16">
-        <v>12.62181924073572</v>
+        <v>12.16892988075561</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.2184476442567</v>
       </c>
       <c r="M16">
-        <v>21.3963276662983</v>
+        <v>7.703587210310607</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>21.26259216226173</v>
       </c>
       <c r="P16">
-        <v>11.68416649691524</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>11.64910726026764</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.763779295063311</v>
+        <v>7.368543449190762</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.260950235757754</v>
+        <v>4.338068317441439</v>
       </c>
       <c r="E17">
-        <v>13.70767898280909</v>
+        <v>13.60723529912079</v>
       </c>
       <c r="F17">
-        <v>24.08597581683659</v>
+        <v>23.87218674470361</v>
       </c>
       <c r="G17">
-        <v>33.04675036999537</v>
+        <v>32.76753115767191</v>
       </c>
       <c r="H17">
-        <v>6.378984063121754</v>
+        <v>6.356831789023697</v>
       </c>
       <c r="I17">
-        <v>2.825611403133744</v>
+        <v>2.683943944082158</v>
       </c>
       <c r="J17">
-        <v>10.08345665011798</v>
+        <v>10.44689895613184</v>
       </c>
       <c r="K17">
-        <v>12.75628049505037</v>
+        <v>12.29066859224931</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.29452200162346</v>
       </c>
       <c r="M17">
-        <v>21.21670447500437</v>
+        <v>7.796431875665662</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>21.13623699095838</v>
       </c>
       <c r="P17">
-        <v>11.72615741749741</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>11.6760787937497</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.601168034449291</v>
+        <v>7.155812017802401</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.080290751221491</v>
+        <v>4.151575036963534</v>
       </c>
       <c r="E18">
-        <v>18.24481701813598</v>
+        <v>18.16165764602669</v>
       </c>
       <c r="F18">
-        <v>25.01407759928752</v>
+        <v>24.82436804842376</v>
       </c>
       <c r="G18">
-        <v>34.76296792760748</v>
+        <v>34.30583756823047</v>
       </c>
       <c r="H18">
-        <v>5.356903627319485</v>
+        <v>5.330681377039173</v>
       </c>
       <c r="I18">
-        <v>2.827172897190067</v>
+        <v>2.681721347891331</v>
       </c>
       <c r="J18">
-        <v>10.46025356513172</v>
+        <v>10.90404323870441</v>
       </c>
       <c r="K18">
-        <v>12.91443862315635</v>
+        <v>12.42059766913106</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.38595593692157</v>
       </c>
       <c r="M18">
-        <v>21.43646825478785</v>
+        <v>7.897448041571889</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>21.39165629049646</v>
       </c>
       <c r="P18">
-        <v>11.72730375088011</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>11.66663199200194</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.431477744016133</v>
+        <v>6.92129849355201</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.884957257564792</v>
+        <v>3.957234561281168</v>
       </c>
       <c r="E19">
-        <v>24.52670681994612</v>
+        <v>24.45106188241938</v>
       </c>
       <c r="F19">
-        <v>26.38671028677917</v>
+        <v>26.17215327982021</v>
       </c>
       <c r="G19">
-        <v>37.2410377324704</v>
+        <v>36.69532304203243</v>
       </c>
       <c r="H19">
-        <v>4.409040091989652</v>
+        <v>4.374111893108326</v>
       </c>
       <c r="I19">
-        <v>2.817969812806332</v>
+        <v>2.675868979823293</v>
       </c>
       <c r="J19">
-        <v>10.97319043170759</v>
+        <v>11.41695538088003</v>
       </c>
       <c r="K19">
-        <v>13.06864205971163</v>
+        <v>12.53778731935336</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.4746766231176</v>
       </c>
       <c r="M19">
-        <v>21.98927554799351</v>
+        <v>7.989055079763148</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>21.97038260721818</v>
       </c>
       <c r="P19">
-        <v>11.70567015591759</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>11.63581267588501</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.367162162738201</v>
+        <v>6.749414575148303</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.64809426887547</v>
+        <v>3.732923119485696</v>
       </c>
       <c r="E20">
-        <v>34.73280128303411</v>
+        <v>34.64959301210327</v>
       </c>
       <c r="F20">
-        <v>28.96658454636307</v>
+        <v>28.59752995287781</v>
       </c>
       <c r="G20">
-        <v>41.76740359138434</v>
+        <v>41.34284268448473</v>
       </c>
       <c r="H20">
-        <v>4.181748808551713</v>
+        <v>4.130858426283042</v>
       </c>
       <c r="I20">
-        <v>2.739710729967697</v>
+        <v>2.613056409878443</v>
       </c>
       <c r="J20">
-        <v>11.86683338144756</v>
+        <v>12.08750286855994</v>
       </c>
       <c r="K20">
-        <v>13.24169350086621</v>
+        <v>12.63633806547012</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.54814846832834</v>
       </c>
       <c r="M20">
-        <v>23.38440142896837</v>
+        <v>8.090942858513065</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>23.36898933208589</v>
       </c>
       <c r="P20">
-        <v>11.60912331857985</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>11.52751779619009</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.751779672750968</v>
+        <v>7.134109081080956</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.650855150720343</v>
+        <v>3.79698142609281</v>
       </c>
       <c r="E21">
-        <v>37.62942955490416</v>
+        <v>37.51156816971745</v>
       </c>
       <c r="F21">
-        <v>30.61535697955002</v>
+        <v>29.64033404449217</v>
       </c>
       <c r="G21">
-        <v>44.39330016737921</v>
+        <v>45.45563218309089</v>
       </c>
       <c r="H21">
-        <v>4.579332327072771</v>
+        <v>4.507299825475143</v>
       </c>
       <c r="I21">
-        <v>2.602622853967532</v>
+        <v>2.533102772253947</v>
       </c>
       <c r="J21">
-        <v>12.30513274256302</v>
+        <v>11.20634845528256</v>
       </c>
       <c r="K21">
-        <v>13.06318451922265</v>
+        <v>12.38443012717669</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.35390998152171</v>
       </c>
       <c r="M21">
-        <v>24.86944432781522</v>
+        <v>7.977435583551341</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>24.63909171185158</v>
       </c>
       <c r="P21">
-        <v>11.38179582870565</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>11.31483557753219</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.034489871357806</v>
+        <v>7.42249791737389</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.660719173199897</v>
+        <v>3.852374697219649</v>
       </c>
       <c r="E22">
-        <v>39.01266085669897</v>
+        <v>38.87203117239844</v>
       </c>
       <c r="F22">
-        <v>31.59692913656776</v>
+        <v>30.20885173613914</v>
       </c>
       <c r="G22">
-        <v>45.93459813109472</v>
+        <v>48.0168349234344</v>
       </c>
       <c r="H22">
-        <v>4.81439599151445</v>
+        <v>4.728793252046996</v>
       </c>
       <c r="I22">
-        <v>2.503653044312589</v>
+        <v>2.593997216498208</v>
       </c>
       <c r="J22">
-        <v>12.5644561484881</v>
+        <v>10.55125983445971</v>
       </c>
       <c r="K22">
-        <v>12.9567690548706</v>
+        <v>12.22427159633991</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.23849912490722</v>
       </c>
       <c r="M22">
-        <v>25.74697067348615</v>
+        <v>7.914915919005656</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>25.36856989577694</v>
       </c>
       <c r="P22">
-        <v>11.23626926849353</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>11.18129997758837</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.919992617418704</v>
+        <v>7.29466061998442</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.65433747515396</v>
+        <v>3.815682574905662</v>
       </c>
       <c r="E23">
-        <v>38.27943886452763</v>
+        <v>38.15284046670375</v>
       </c>
       <c r="F23">
-        <v>31.09561491500918</v>
+        <v>29.9849663557073</v>
       </c>
       <c r="G23">
-        <v>45.15184325084892</v>
+        <v>46.52092951103942</v>
       </c>
       <c r="H23">
-        <v>4.689365056318691</v>
+        <v>4.612142987844409</v>
       </c>
       <c r="I23">
-        <v>2.543195110562006</v>
+        <v>2.555271903694296</v>
       </c>
       <c r="J23">
-        <v>12.4344484607148</v>
+        <v>11.04642880190988</v>
       </c>
       <c r="K23">
-        <v>13.03338236856233</v>
+        <v>12.33092318516049</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.31139870991875</v>
       </c>
       <c r="M23">
-        <v>25.26903410971745</v>
+        <v>7.968744422652088</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>24.99604301231751</v>
       </c>
       <c r="P23">
-        <v>11.31602521152264</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>11.25278784621024</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.404788945917298</v>
+        <v>6.776729451711813</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.62969229892499</v>
+        <v>3.713726877942261</v>
       </c>
       <c r="E24">
-        <v>35.39577888509803</v>
+        <v>35.31257682574233</v>
       </c>
       <c r="F24">
-        <v>29.13229760017291</v>
+        <v>28.76162490709008</v>
       </c>
       <c r="G24">
-        <v>42.06835641806421</v>
+        <v>41.62034099658413</v>
       </c>
       <c r="H24">
-        <v>4.209053021250254</v>
+        <v>4.157955034243233</v>
       </c>
       <c r="I24">
-        <v>2.718410895167993</v>
+        <v>2.588012498719269</v>
       </c>
       <c r="J24">
-        <v>11.93213124534717</v>
+        <v>12.1596044769968</v>
       </c>
       <c r="K24">
-        <v>13.29409876897361</v>
+        <v>12.67812658045883</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.57855087681972</v>
       </c>
       <c r="M24">
-        <v>23.41119647840261</v>
+        <v>8.124955673956153</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>23.40106026872892</v>
       </c>
       <c r="P24">
-        <v>11.61504627083954</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>11.53029947711</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.795415724910773</v>
+        <v>6.256447143839184</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.597970284641446</v>
+        <v>3.657528655318668</v>
       </c>
       <c r="E25">
-        <v>32.05258338429969</v>
+        <v>31.99194426244991</v>
       </c>
       <c r="F25">
-        <v>26.95130562701397</v>
+        <v>26.72505853951574</v>
       </c>
       <c r="G25">
-        <v>38.61626827055426</v>
+        <v>38.07243354304949</v>
       </c>
       <c r="H25">
-        <v>3.674983939876383</v>
+        <v>3.637564400646525</v>
       </c>
       <c r="I25">
-        <v>2.916889712824897</v>
+        <v>2.751614084568023</v>
       </c>
       <c r="J25">
-        <v>11.39889252755976</v>
+        <v>11.78006446641287</v>
       </c>
       <c r="K25">
-        <v>13.58308517123498</v>
+        <v>12.98705173640813</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>10.85299865327651</v>
       </c>
       <c r="M25">
-        <v>21.25931188108606</v>
+        <v>8.271864030220307</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>21.24067677594118</v>
       </c>
       <c r="P25">
-        <v>11.93941526417701</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>11.83494241462476</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
